--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -19,16 +19,103 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">Daily Scrum Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanban board is ZenHub. Use the ZenHub browser extension to view the RaiderNAV Kanban board in GitHub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings are for development team, and maybe scrum master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings will be conducted each Wednesday and Saturday, and over email if in-person meetings are not possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each team member should report: what they have done, what they will do, and what impediments prevent them from progressing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Feb 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(for this sprint, everyone is on the development team, but this should not be the usual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joined GitHub project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down user stories 16-18 and 20. Install ZenHub. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What impediments prevent them from progressing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joined GitHub project and installed ZenHub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down user stories 4-6. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down user stories 7-9. Product mockup. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakshyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down user stories 1-3. Product mockup. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down user stories 13-15. Permission form. Other unscheduled documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down user stories 10-12 and 19. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Feb 18</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,55 +132,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,48 +142,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -151,23 +155,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -191,67 +180,39 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -263,7 +224,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -279,7 +240,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -306,17 +267,328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t xml:space="preserve">Daily Scrum Report</t>
   </si>
@@ -101,6 +101,45 @@
   </si>
   <si>
     <t xml:space="preserve">10 Feb 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Absent from meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What impediments prevent them from progressing: None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs and Use Cases for stories 4-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: interview scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What impediments prevent them from progressing: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, user reqs for 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: system reqs and use cases for 1-3, mockup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: reqs and use cases for stories 13-15, created various documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: Permission form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs for 10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: reqs for 19, use cases for 10-19 and 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xx Feb 18</t>
   </si>
 </sst>
 </file>
@@ -267,10 +306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,7 +534,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,12 +542,12 @@
         <v>14</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +570,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,17 +578,17 @@
         <v>19</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,17 +596,17 @@
         <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,16 +614,146 @@
         <v>23</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t xml:space="preserve">Daily Scrum Report</t>
   </si>
@@ -115,7 +115,10 @@
     <t xml:space="preserve">What they will do: interview scripts</t>
   </si>
   <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: </t>
+    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs for 7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: use cases for 7-9, mockup</t>
   </si>
   <si>
     <t xml:space="preserve">What they have done: Installed Android Studio, user reqs for 1-3</t>
@@ -124,16 +127,16 @@
     <t xml:space="preserve">What they will do: system reqs and use cases for 1-3, mockup</t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: reqs and use cases for stories 13-15, created various documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: Permission form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, reqs for 10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: reqs for 19, use cases for 10-19 and 19</t>
+    <t xml:space="preserve">What they have done: reqs and use cases for stories 13-15, permission form, created various documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs for 10-12 and 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: use cases for 10-19 and 19</t>
   </si>
   <si>
     <t xml:space="preserve">Meeting 3</t>
@@ -308,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,17 +563,17 @@
         <v>17</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,12 +581,12 @@
         <v>19</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,12 +599,12 @@
         <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,12 +617,12 @@
         <v>23</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,10 +646,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t xml:space="preserve">Daily Scrum Report</t>
   </si>
@@ -109,28 +109,22 @@
     <t xml:space="preserve">What impediments prevent them from progressing: None</t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs and Use Cases for stories 4-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: interview scripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs for 7-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: use cases for 7-9, mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, user reqs for 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: system reqs and use cases for 1-3, mockup</t>
+    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs and Use Cases for stories 4-6, interview scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs and use cases for 7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: mockup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 1-3</t>
   </si>
   <si>
     <t xml:space="preserve">What they have done: reqs and use cases for stories 13-15, permission form, created various documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: </t>
   </si>
   <si>
     <t xml:space="preserve">What they have done: Installed Android Studio, reqs for 10-12 and 19</t>
@@ -311,8 +305,8 @@
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,7 +580,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,12 +593,12 @@
         <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,12 +611,12 @@
         <v>23</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,10 +640,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t xml:space="preserve">Daily Scrum Report</t>
   </si>
@@ -103,22 +103,28 @@
     <t xml:space="preserve">10 Feb 18</t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Absent from meeting</t>
+    <t xml:space="preserve">What they have done: Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: Install ZenHub. Install UMLet. Install Android Studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What impediments prevent them from progressing: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 4-6, interview scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: mockup</t>
   </si>
   <si>
     <t xml:space="preserve">What impediments prevent them from progressing: None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs and Use Cases for stories 4-6, interview scripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, Reqs and use cases for 7-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: mockup</t>
   </si>
   <si>
     <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 1-3</t>
@@ -305,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,12 +532,12 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,12 +545,12 @@
         <v>14</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,17 +563,17 @@
         <v>17</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,17 +581,17 @@
         <v>19</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,17 +599,17 @@
         <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,17 +617,17 @@
         <v>23</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,10 +646,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">What they have done: Nothing</t>
   </si>
   <si>
-    <t xml:space="preserve">What they will do: Install ZenHub. Install UMLet. Install Android Studio.</t>
+    <t xml:space="preserve">What will they do: Learn how to do use cases, install UMLet, install Android Studio, install ZenHub</t>
   </si>
   <si>
     <t xml:space="preserve">What impediments prevent them from progressing: </t>
@@ -311,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t xml:space="preserve">Daily Scrum Report</t>
   </si>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">10 Feb 18</t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Nothing</t>
+    <t xml:space="preserve">What they have done: </t>
   </si>
   <si>
     <t xml:space="preserve">What will they do: Learn how to do use cases, install UMLet, install Android Studio, install ZenHub</t>
@@ -115,34 +115,55 @@
     <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 4-6, interview scripts</t>
   </si>
   <si>
+    <t xml:space="preserve">What they will do: Update interview script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What impediments prevent them from progressing: None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: mockup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: reqs and use cases for stories 13-15, permission form, created various documents</t>
+  </si>
+  <si>
     <t xml:space="preserve">What they will do: </t>
   </si>
   <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 7-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What impediments prevent them from progressing: None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: reqs and use cases for stories 13-15, permission form, created various documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they have done: Installed Android Studio, reqs for 10-12 and 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What they will do: use cases for 10-19 and 19</t>
+    <t xml:space="preserve">What they have done: Installed Android Studio, reqs and use cases for 10-12 and 18-20</t>
   </si>
   <si>
     <t xml:space="preserve">Meeting 3</t>
   </si>
   <si>
-    <t xml:space="preserve">xx Feb 18</t>
+    <t xml:space="preserve">12 Feb 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Installed Android Studio, Installed UMLet, Installed ZenHub, Installed GitKraken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: SRS document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What impediments prevent them from progressing: Not knowing how to do use cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they will do: Focus Group document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Product Mockup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Feb 18</t>
   </si>
 </sst>
 </file>
@@ -309,10 +330,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +576,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,17 +584,17 @@
         <v>17</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,12 +607,12 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,12 +625,12 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,17 +638,17 @@
         <v>23</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,17 +678,17 @@
         <v>8</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,12 +701,12 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,17 +714,17 @@
         <v>17</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,17 +732,17 @@
         <v>19</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,7 +755,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,11 +773,141 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
+++ b/docs/Getana_Deliverable_1_DailyScrumReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t xml:space="preserve">Daily Scrum Report</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t xml:space="preserve">13 Feb 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: Focus Group document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they have done: SRS doc</t>
   </si>
 </sst>
 </file>
@@ -332,8 +338,8 @@
   </sheetPr>
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -826,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +842,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +860,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,7 +878,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,7 +896,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +914,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
